--- a/DB_schema_broker_retailer.xlsx
+++ b/DB_schema_broker_retailer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pragalya Kanakaraj\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{00E29FF9-6360-4073-A10A-1D3FCDB9BCDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{03704173-9B1C-4A27-8725-137441B1F996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{893E6BC4-BA8D-4CB6-8A87-F5D96D0468C5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{893E6BC4-BA8D-4CB6-8A87-F5D96D0468C5}"/>
   </bookViews>
   <sheets>
     <sheet name="static_Tables" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="256">
   <si>
     <t xml:space="preserve"> bid</t>
   </si>
@@ -75,9 +75,6 @@
   </si>
   <si>
     <t>b_established_year</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> b_shop_name</t>
   </si>
   <si>
     <t>b_person_name</t>
@@ -273,9 +270,6 @@
     <t>master_mandi_table</t>
   </si>
   <si>
-    <t>mandi_id</t>
-  </si>
-  <si>
     <t>mandi_location</t>
   </si>
   <si>
@@ -310,18 +304,6 @@
   </si>
   <si>
     <t>image_path</t>
-  </si>
-  <si>
-    <t>regional_name1</t>
-  </si>
-  <si>
-    <t>regional_name2</t>
-  </si>
-  <si>
-    <t>regional_name3</t>
-  </si>
-  <si>
-    <t>regional_name4</t>
   </si>
   <si>
     <t>bigint</t>
@@ -887,6 +869,60 @@
   </si>
   <si>
     <t>INSERT ,UPDATE , SELECT</t>
+  </si>
+  <si>
+    <t>business_branch_table</t>
+  </si>
+  <si>
+    <t>b_branch_id</t>
+  </si>
+  <si>
+    <t>b_shop_name</t>
+  </si>
+  <si>
+    <t>business_category_table</t>
+  </si>
+  <si>
+    <t>b_category_id</t>
+  </si>
+  <si>
+    <t>b_category_name</t>
+  </si>
+  <si>
+    <t>master_city</t>
+  </si>
+  <si>
+    <t>abbreviation</t>
+  </si>
+  <si>
+    <t>city_name</t>
+  </si>
+  <si>
+    <t>character varying(5)</t>
+  </si>
+  <si>
+    <t>city_abbreviation</t>
+  </si>
+  <si>
+    <t>b_privilege_user</t>
+  </si>
+  <si>
+    <t>mandi_abbrevation</t>
+  </si>
+  <si>
+    <t>product_regional_name</t>
+  </si>
+  <si>
+    <t>product_regional_id</t>
+  </si>
+  <si>
+    <t>category_regional_name</t>
+  </si>
+  <si>
+    <t>category_regional_id</t>
+  </si>
+  <si>
+    <t>category_id</t>
   </si>
 </sst>
 </file>
@@ -1028,7 +1064,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1043,14 +1079,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1365,10 +1405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E971A767-F42F-4D75-9124-AF5DA9117968}">
-  <dimension ref="A1:B220"/>
+  <dimension ref="A1:B251"/>
   <sheetViews>
-    <sheetView topLeftCell="A174" workbookViewId="0">
-      <selection activeCell="B141" sqref="B141"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1380,7 +1420,7 @@
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="6"/>
       <c r="B1" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -1388,1133 +1428,1316 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>2</v>
+      <c r="A6" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>24</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>24</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>20</v>
+      <c r="A8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="A12" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="B12" s="9"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>9</v>
+        <v>242</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>124</v>
+      <c r="A14" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>124</v>
+      <c r="A18" s="1" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>24</v>
+      <c r="A19" t="s">
+        <v>239</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="9"/>
+      <c r="A23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>21</v>
+      <c r="A25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="9"/>
+      <c r="A29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>38</v>
+        <v>249</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="2" t="s">
-        <v>30</v>
+      <c r="A32" s="14" t="s">
+        <v>12</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="2" t="s">
-        <v>125</v>
+      <c r="A33" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>19</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36" s="3" t="s">
+      <c r="A35" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" s="2" t="s">
+      <c r="B39" s="9"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B45" s="9"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B42" s="9"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B44" s="5" t="s">
+      <c r="B47" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B48" s="9"/>
+      <c r="A48" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
-        <v>47</v>
+        <v>119</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>24</v>
+        <v>118</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>88</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A57" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B57" s="9"/>
+      <c r="A53" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A58" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>61</v>
-      </c>
+      <c r="A58" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B58" s="9"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B64" s="9"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="B71" s="9"/>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B76" s="9"/>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B79" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B80" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A60" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B60" s="3" t="s">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B81" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A61" s="2" t="s">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B61" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A62" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A63" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A64" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A65" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A69" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B69" s="9"/>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A70" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A71" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A75" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B75" s="9"/>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A76" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A77" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A81" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B81" s="9"/>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A82" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B82" s="3"/>
+      <c r="B82" s="3" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A84" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A85" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A86" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B86" s="3" t="s">
+      <c r="A84" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B84" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A87" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A88" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>78</v>
-      </c>
+      <c r="A88" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="B88" s="9"/>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A89" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A93" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B93" s="9"/>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A94" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>87</v>
+      <c r="A89" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A95" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>88</v>
-      </c>
+      <c r="A95" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B95" s="9"/>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A96" s="2" t="s">
-        <v>47</v>
+      <c r="A96" s="15" t="s">
+        <v>43</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
-        <v>82</v>
+        <v>248</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>88</v>
+        <v>23</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>88</v>
+        <v>23</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A99" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>88</v>
+      <c r="A99" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A100" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>88</v>
-      </c>
+      <c r="A100" s="13"/>
+      <c r="B100" s="13"/>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A101" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>88</v>
-      </c>
+      <c r="A101" s="13"/>
+      <c r="B101" s="13"/>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A102" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B102" s="5" t="s">
-        <v>89</v>
+      <c r="A102" s="13"/>
+      <c r="B102" s="13"/>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B104" s="9"/>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A106" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B106" s="9"/>
+      <c r="A106" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A107" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="A107" s="13"/>
+      <c r="B107" s="13"/>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A108" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A109" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="A108" s="13"/>
+      <c r="B108" s="13"/>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A110" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="A110" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B110" s="9"/>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A111" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>63</v>
-      </c>
+      <c r="A111" s="2"/>
+      <c r="B111" s="3"/>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" s="2" t="s">
-        <v>96</v>
+        <v>250</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" s="2" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" s="2" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" s="2" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A116" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B116" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A120" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B120" s="9"/>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A121" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A122" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B122" s="3" t="s">
+      <c r="A116" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A117" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B117" s="3" t="s">
         <v>19</v>
       </c>
     </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A118" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A119" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A123" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="A123" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B123" s="9"/>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" s="2" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A125" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B125" s="5" t="s">
-        <v>89</v>
+      <c r="A125" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A126" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A127" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A128" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A129" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="B129" s="9"/>
+      <c r="A129" s="2"/>
+      <c r="B129" s="3"/>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A130" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B130" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="A130" s="2"/>
+      <c r="B130" s="3"/>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A131" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B131" s="5" t="s">
-        <v>89</v>
-      </c>
+      <c r="A131" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="B131" s="9"/>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A132" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B132" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A136" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="B136" s="9"/>
+      <c r="A132" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A133" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A134" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A137" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B137" s="3" t="s">
-        <v>117</v>
-      </c>
+      <c r="A137" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B137" s="9"/>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" s="2" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="B138" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A139" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A140" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A141" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B141" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A139" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B139" s="5" t="s">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A142" s="2" t="s">
         <v>89</v>
       </c>
+      <c r="B142" s="3" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A143" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="B143" s="9"/>
+      <c r="A143" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" s="2" t="s">
-        <v>34</v>
+        <v>91</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" s="2" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A146" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B146" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A150" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="B150" s="9"/>
+      <c r="A146" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A147" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A151" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B151" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="A151" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B151" s="9"/>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" s="2" t="s">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="B152" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A153" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A154" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B154" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A153" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B153" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A157" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="B157" s="9"/>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A158" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B158" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A159" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B159" s="3" t="s">
-        <v>24</v>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A155" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A156" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A160" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B160" s="3" t="s">
-        <v>88</v>
-      </c>
+      <c r="A160" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B160" s="9"/>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" s="2" t="s">
-        <v>121</v>
+        <v>43</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A162" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B162" s="3" t="s">
-        <v>19</v>
+      <c r="A162" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A163" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B163" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A164" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B164" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A165" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B165" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A166" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B166" s="3" t="s">
-        <v>89</v>
+      <c r="A163" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A167" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B167" s="3" t="s">
-        <v>124</v>
-      </c>
+      <c r="A167" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B167" s="9"/>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A168" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B168" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A172" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A173" t="s">
-        <v>126</v>
-      </c>
-      <c r="B173" t="s">
-        <v>24</v>
+      <c r="A168" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A169" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A170" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A174" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B174" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="A174" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B174" s="9"/>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" s="2" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>124</v>
+        <v>18</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A177" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B177" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A178" s="2" t="s">
+      <c r="A177" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B178" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A179" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B179" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A180" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B180" s="3" t="s">
-        <v>42</v>
+      <c r="B177" s="5" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A181" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B181" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A185" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="B185" s="9"/>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A186" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B186" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A187" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B187" s="5" t="s">
-        <v>19</v>
+      <c r="A181" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B181" s="9"/>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A182" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A183" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A184" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A188" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B188" s="9"/>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A189" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A190" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A191" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B191" s="9"/>
+      <c r="A191" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" s="2" t="s">
-        <v>44</v>
+        <v>115</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A193" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="B193" s="5" t="s">
-        <v>19</v>
+      <c r="A193" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A194" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A195" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A196" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A197" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="B197" s="9"/>
+      <c r="A197" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>24</v>
+        <v>118</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" s="4" t="s">
-        <v>130</v>
+        <v>35</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>19</v>
+        <v>118</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A203" s="8"/>
-      <c r="B203" s="9"/>
+      <c r="A203" s="1" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A204" s="10"/>
-      <c r="B204" s="3"/>
+      <c r="A204" t="s">
+        <v>120</v>
+      </c>
+      <c r="B204" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A205" s="2"/>
-      <c r="B205" s="3"/>
+      <c r="A205" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A206" s="2"/>
-      <c r="B206" s="3"/>
+      <c r="A206" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A207" s="2"/>
-      <c r="B207" s="3"/>
+      <c r="A207" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A208" s="2"/>
-      <c r="B208" s="3"/>
+      <c r="A208" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A209" s="2"/>
-      <c r="B209" s="3"/>
+      <c r="A209" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A210" s="2"/>
-      <c r="B210" s="3"/>
+      <c r="A210" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A211" s="2"/>
-      <c r="B211" s="3"/>
+      <c r="A211" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A212" s="2"/>
-      <c r="B212" s="3"/>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A213" s="2"/>
-      <c r="B213" s="3"/>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A214" s="2"/>
-      <c r="B214" s="3"/>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A215" s="2"/>
-      <c r="B215" s="3"/>
+      <c r="A212" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B212" s="5" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A216" s="2"/>
-      <c r="B216" s="3"/>
+      <c r="A216" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B216" s="9"/>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A217" s="2"/>
-      <c r="B217" s="3"/>
+      <c r="A217" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A218" s="2"/>
-      <c r="B218" s="3"/>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A219" s="12"/>
-      <c r="B219" s="3"/>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A220" s="4"/>
-      <c r="B220" s="5"/>
+      <c r="A218" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B218" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A222" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B222" s="9"/>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A223" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B223" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A224" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B224" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A228" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B228" s="9"/>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A229" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B229" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A230" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B230" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A234" s="8"/>
+      <c r="B234" s="9"/>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A235" s="2"/>
+      <c r="B235" s="3"/>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A236" s="2"/>
+      <c r="B236" s="3"/>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A237" s="2"/>
+      <c r="B237" s="3"/>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A238" s="2"/>
+      <c r="B238" s="3"/>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A239" s="2"/>
+      <c r="B239" s="3"/>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A240" s="2"/>
+      <c r="B240" s="3"/>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A241" s="2"/>
+      <c r="B241" s="3"/>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A242" s="2"/>
+      <c r="B242" s="3"/>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A243" s="2"/>
+      <c r="B243" s="3"/>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A244" s="2"/>
+      <c r="B244" s="3"/>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A245" s="2"/>
+      <c r="B245" s="3"/>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A246" s="2"/>
+      <c r="B246" s="3"/>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A247" s="2"/>
+      <c r="B247" s="3"/>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A248" s="2"/>
+      <c r="B248" s="3"/>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A249" s="2"/>
+      <c r="B249" s="3"/>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A250" s="11"/>
+      <c r="B250" s="3"/>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A251" s="4"/>
+      <c r="B251" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2538,136 +2761,136 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B1" s="9"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
-        <v>132</v>
+      <c r="A2" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="12" t="s">
-        <v>147</v>
+      <c r="A17" s="11" t="s">
+        <v>141</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -2676,72 +2899,72 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B22" s="9"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>156</v>
+        <v>147</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
@@ -2750,178 +2973,178 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="8" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B35" s="9"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="4" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="8" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B51" s="9"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B57" s="3"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A58" s="12" t="s">
-        <v>36</v>
+      <c r="A58" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="B58" s="3"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
@@ -2930,426 +3153,426 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="8" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B64" s="9"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="4" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="8" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B85" s="9"/>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" s="4" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" s="8" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B96" s="9"/>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" s="2" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" s="2" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" s="2" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" s="2" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" s="2" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" s="4" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" s="8" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B114" s="9"/>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" s="2" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" s="2" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" s="2" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" s="2" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" s="2" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" s="2" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -3362,7 +3585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37B55EB4-751E-4260-AC38-F3846301219E}">
   <dimension ref="A1:C133"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D133" sqref="D133"/>
     </sheetView>
   </sheetViews>
@@ -3375,712 +3598,712 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B2" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C2" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C3" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C4" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C5" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C9" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C10" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C11" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C12" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C16" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B17" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C17" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B18" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C18" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B19" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C19" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C24" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B25" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C25" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B26" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C26" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C27" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B31" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C31" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C32" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C33" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C34" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B38" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C38" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C39" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C40" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
+        <v>222</v>
+      </c>
+      <c r="C41" t="s">
         <v>228</v>
-      </c>
-      <c r="C41" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B45" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C45" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C46" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C47" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C48" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B52" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C52" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B53" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C53" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B54" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C54" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B55" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C55" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B59" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C59" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B60" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C60" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B61" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C61" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B62" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C62" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B66" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C66" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B67" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C67" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B68" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C68" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B69" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C69" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B73" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C73" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B74" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C74" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B75" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C75" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B76" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C76" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B80" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C80" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B81" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C81" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B82" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C82" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
+        <v>226</v>
+      </c>
+      <c r="B83" t="s">
+        <v>222</v>
+      </c>
+      <c r="C83" t="s">
         <v>232</v>
-      </c>
-      <c r="B83" t="s">
-        <v>228</v>
-      </c>
-      <c r="C83" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B88" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C88" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B89" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C89" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B90" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C90" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B91" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C91" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B95" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C95" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B96" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C96" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B97" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C97" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B98" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C98" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B102" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C102" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B103" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C103" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B104" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C104" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B105" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C105" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B109" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C109" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B110" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C110" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B111" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C111" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B112" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C112" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B116" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C116" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B117" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C117" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B118" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C118" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B119" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C119" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B123" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C123" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B124" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B125" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B126" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B130" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C130" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B131" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C131" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B132" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C132" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B133" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C133" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>

--- a/DB_schema_broker_retailer.xlsx
+++ b/DB_schema_broker_retailer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pragalya Kanakaraj\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{03704173-9B1C-4A27-8725-137441B1F996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD0FDAA6-7099-4DED-9C01-9CE8B66DE944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{893E6BC4-BA8D-4CB6-8A87-F5D96D0468C5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="257">
   <si>
     <t xml:space="preserve"> bid</t>
   </si>
@@ -923,6 +923,9 @@
   </si>
   <si>
     <t>category_id</t>
+  </si>
+  <si>
+    <t>driver_License_Category</t>
   </si>
 </sst>
 </file>
@@ -1064,7 +1067,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1091,6 +1094,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1405,10 +1409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E971A767-F42F-4D75-9124-AF5DA9117968}">
-  <dimension ref="A1:B251"/>
+  <dimension ref="A1:B260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1810,509 +1814,479 @@
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A71" s="8" t="s">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" s="13"/>
+      <c r="B70" s="13"/>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="B71" s="9"/>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A72" s="16" t="s">
+      <c r="B72" s="9"/>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" s="16" t="s">
         <v>254</v>
       </c>
-      <c r="B72" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A73" s="14" t="s">
+      <c r="B73" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="B73" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A74" s="17" t="s">
+      <c r="B74" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" s="17" t="s">
         <v>253</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B75" s="5" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A76" s="8" t="s">
+      <c r="A76" s="18"/>
+      <c r="B76" s="13"/>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B76" s="9"/>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A77" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A78" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>62</v>
-      </c>
+      <c r="B78" s="9"/>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
-        <v>54</v>
+        <v>256</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B86" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A84" s="4" t="s">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="B87" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A88" s="8" t="s">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="B88" s="9"/>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A89" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A90" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A91" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="B91" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A95" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B95" s="9"/>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A96" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A97" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="B97" s="9"/>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A99" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B99" s="5" t="s">
+      <c r="A99" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="B100" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A100" s="13"/>
-      <c r="B100" s="13"/>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A101" s="13"/>
-      <c r="B101" s="13"/>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A102" s="13"/>
-      <c r="B102" s="13"/>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B104" s="9"/>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A108" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109" s="13"/>
+      <c r="B109" s="13"/>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A110" s="13"/>
+      <c r="B110" s="13"/>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A111" s="13"/>
+      <c r="B111" s="13"/>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A113" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B104" s="9"/>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A105" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A106" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B106" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A107" s="13"/>
-      <c r="B107" s="13"/>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A108" s="13"/>
-      <c r="B108" s="13"/>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A110" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B110" s="9"/>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A111" s="2"/>
-      <c r="B111" s="3"/>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A112" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A113" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="B113" s="9"/>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A115" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A116" s="13"/>
+      <c r="B116" s="13"/>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A117" s="13"/>
+      <c r="B117" s="13"/>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A119" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B119" s="9"/>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A120" s="2"/>
+      <c r="B120" s="3"/>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A121" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A122" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A123" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B114" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A115" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A116" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A117" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B117" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A118" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B118" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A119" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B119" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A123" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B123" s="9"/>
+      <c r="B123" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>82</v>
+        <v>18</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" s="2" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A132" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B132" s="9"/>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A133" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A134" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A135" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A136" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A137" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B128" s="5" t="s">
+      <c r="B137" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A129" s="2"/>
-      <c r="B129" s="3"/>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A130" s="2"/>
-      <c r="B130" s="3"/>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A131" s="8" t="s">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A138" s="2"/>
+      <c r="B138" s="3"/>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A139" s="2"/>
+      <c r="B139" s="3"/>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A140" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="B131" s="9"/>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A132" s="16" t="s">
+      <c r="B140" s="9"/>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A141" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="B132" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A133" s="14" t="s">
+      <c r="B141" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A142" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="B133" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A134" s="17" t="s">
+      <c r="B142" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A143" s="17" t="s">
         <v>251</v>
       </c>
-      <c r="B134" s="5" t="s">
+      <c r="B143" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A137" s="8" t="s">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A146" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B137" s="9"/>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A138" s="2" t="s">
+      <c r="B146" s="9"/>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A147" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B138" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A139" s="2" t="s">
+      <c r="B147" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A148" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B139" s="3" t="s">
+      <c r="B148" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A140" s="2" t="s">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A149" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B140" s="3" t="s">
+      <c r="B149" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A141" s="2" t="s">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A150" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B141" s="3" t="s">
+      <c r="B150" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A142" s="2" t="s">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A151" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B142" s="3" t="s">
+      <c r="B151" s="3" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A143" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B143" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A144" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B144" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A145" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B145" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A146" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B146" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A147" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B147" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A151" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B151" s="9"/>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" s="2" t="s">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>103</v>
+        <v>19</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" s="4" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" s="8" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B160" s="9"/>
     </row>
@@ -2321,391 +2295,401 @@
         <v>43</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A162" s="4" t="s">
+      <c r="A162" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A163" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A164" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A165" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B162" s="5" t="s">
+      <c r="B165" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A163" s="4" t="s">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A169" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B169" s="9"/>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A170" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A171" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B171" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A172" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B163" s="5" t="s">
+      <c r="B172" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A167" s="8" t="s">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A176" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="B167" s="9"/>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A168" s="2" t="s">
+      <c r="B176" s="9"/>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A177" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B168" s="3" t="s">
+      <c r="B177" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A169" s="2" t="s">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A178" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B169" s="3" t="s">
+      <c r="B178" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A170" s="4" t="s">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A179" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B170" s="5" t="s">
+      <c r="B179" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A174" s="8" t="s">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A183" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="B174" s="9"/>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A175" s="2" t="s">
+      <c r="B183" s="9"/>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A184" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B175" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A176" s="2" t="s">
+      <c r="B184" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A185" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B176" s="3" t="s">
+      <c r="B185" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A177" s="4" t="s">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A186" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B177" s="5" t="s">
+      <c r="B186" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A181" s="8" t="s">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A190" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B181" s="9"/>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A182" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B182" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A183" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B183" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A184" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B184" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A188" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="B188" s="9"/>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A189" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B189" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A190" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B190" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="B190" s="9"/>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" s="2" t="s">
-        <v>114</v>
+        <v>43</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A193" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B193" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A194" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B194" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A195" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B195" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A196" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B196" s="3" t="s">
-        <v>82</v>
+      <c r="A193" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B193" s="5" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A197" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B197" s="3" t="s">
-        <v>83</v>
-      </c>
+      <c r="A197" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B197" s="9"/>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" s="2" t="s">
-        <v>36</v>
+        <v>113</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>118</v>
+        <v>23</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A199" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B199" s="5" t="s">
-        <v>118</v>
+      <c r="A199" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A200" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A201" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A202" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A203" s="1" t="s">
-        <v>121</v>
+      <c r="A203" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A204" t="s">
-        <v>120</v>
-      </c>
-      <c r="B204" t="s">
+      <c r="A204" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B204" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205" s="2" t="s">
-        <v>37</v>
+        <v>117</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207" s="2" t="s">
-        <v>119</v>
+        <v>36</v>
       </c>
       <c r="B207" s="3" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A208" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B208" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A209" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B209" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A210" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B210" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A211" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B211" s="3" t="s">
-        <v>41</v>
+      <c r="A208" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B208" s="5" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A212" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B212" s="5" t="s">
-        <v>41</v>
+      <c r="A212" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A213" t="s">
+        <v>120</v>
+      </c>
+      <c r="B213" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A214" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A215" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A216" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B216" s="9"/>
+      <c r="A216" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A217" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A218" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A219" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A220" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B220" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A221" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B221" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A225" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B225" s="9"/>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A226" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B217" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A218" s="4" t="s">
+      <c r="B226" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A227" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B218" s="5" t="s">
+      <c r="B227" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A222" s="8" t="s">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A231" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="B222" s="9"/>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A223" s="2" t="s">
+      <c r="B231" s="9"/>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A232" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B223" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A224" s="4" t="s">
+      <c r="B232" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A233" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B224" s="5" t="s">
+      <c r="B233" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A228" s="8" t="s">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A237" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="B228" s="9"/>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A229" s="2" t="s">
+      <c r="B237" s="9"/>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A238" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B229" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A230" s="4" t="s">
+      <c r="B238" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A239" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B230" s="5" t="s">
+      <c r="B239" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A234" s="8"/>
-      <c r="B234" s="9"/>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A235" s="2"/>
-      <c r="B235" s="3"/>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A236" s="2"/>
-      <c r="B236" s="3"/>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A237" s="2"/>
-      <c r="B237" s="3"/>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A238" s="2"/>
-      <c r="B238" s="3"/>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A239" s="2"/>
-      <c r="B239" s="3"/>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A240" s="2"/>
-      <c r="B240" s="3"/>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A241" s="2"/>
-      <c r="B241" s="3"/>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A242" s="2"/>
-      <c r="B242" s="3"/>
-    </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A243" s="2"/>
-      <c r="B243" s="3"/>
+      <c r="A243" s="8"/>
+      <c r="B243" s="9"/>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A244" s="2"/>
@@ -2732,12 +2716,48 @@
       <c r="B249" s="3"/>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A250" s="11"/>
+      <c r="A250" s="2"/>
       <c r="B250" s="3"/>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A251" s="4"/>
-      <c r="B251" s="5"/>
+      <c r="A251" s="2"/>
+      <c r="B251" s="3"/>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A252" s="2"/>
+      <c r="B252" s="3"/>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A253" s="2"/>
+      <c r="B253" s="3"/>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A254" s="2"/>
+      <c r="B254" s="3"/>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A255" s="2"/>
+      <c r="B255" s="3"/>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A256" s="2"/>
+      <c r="B256" s="3"/>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A257" s="2"/>
+      <c r="B257" s="3"/>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A258" s="2"/>
+      <c r="B258" s="3"/>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A259" s="11"/>
+      <c r="B259" s="3"/>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A260" s="4"/>
+      <c r="B260" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DB_schema_broker_retailer.xlsx
+++ b/DB_schema_broker_retailer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pragalya Kanakaraj\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD0FDAA6-7099-4DED-9C01-9CE8B66DE944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF2634E6-88B4-438C-969B-6B2C0EAEFC57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{893E6BC4-BA8D-4CB6-8A87-F5D96D0468C5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{893E6BC4-BA8D-4CB6-8A87-F5D96D0468C5}"/>
   </bookViews>
   <sheets>
     <sheet name="static_Tables" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="289">
   <si>
     <t xml:space="preserve"> bid</t>
   </si>
@@ -270,6 +270,9 @@
     <t>master_mandi_table</t>
   </si>
   <si>
+    <t>mandi_id</t>
+  </si>
+  <si>
     <t>mandi_location</t>
   </si>
   <si>
@@ -499,21 +502,6 @@
   </si>
   <si>
     <t>policy_holder_contact</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">int </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>default 0</t>
-    </r>
   </si>
   <si>
     <t>daily_price_update</t>
@@ -820,9 +808,6 @@
     <t>wholeseller_admin</t>
   </si>
   <si>
-    <t>SELECT , (INSERT,UPDATE if the b_type_id is 3 as they have access to add the wholeseller_user</t>
-  </si>
-  <si>
     <t>wholeseller_user</t>
   </si>
   <si>
@@ -892,18 +877,12 @@
     <t>master_city</t>
   </si>
   <si>
-    <t>abbreviation</t>
-  </si>
-  <si>
     <t>city_name</t>
   </si>
   <si>
     <t>character varying(5)</t>
   </si>
   <si>
-    <t>city_abbreviation</t>
-  </si>
-  <si>
     <t>b_privilege_user</t>
   </si>
   <si>
@@ -925,7 +904,112 @@
     <t>category_id</t>
   </si>
   <si>
-    <t>driver_License_Category</t>
+    <t>indian_driver_licenses_type</t>
+  </si>
+  <si>
+    <t>license_type_id</t>
+  </si>
+  <si>
+    <t>license_type_name</t>
+  </si>
+  <si>
+    <t>license_type_abbrevation</t>
+  </si>
+  <si>
+    <t>minimum_age</t>
+  </si>
+  <si>
+    <t>character varying(2)</t>
+  </si>
+  <si>
+    <t>allowed_vehicles</t>
+  </si>
+  <si>
+    <t>driver_License_type</t>
+  </si>
+  <si>
+    <t>liscense_valid_duration</t>
+  </si>
+  <si>
+    <t>timestamp</t>
+  </si>
+  <si>
+    <t>commercial_use</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>national_permit_required</t>
+  </si>
+  <si>
+    <t>medical_certificate_required</t>
+  </si>
+  <si>
+    <t>int (fk frm master_city)</t>
+  </si>
+  <si>
+    <t>int (fk frm master_state)</t>
+  </si>
+  <si>
+    <t>state_acronyms</t>
+  </si>
+  <si>
+    <t>state_name</t>
+  </si>
+  <si>
+    <t>city_acronyms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">int </t>
+  </si>
+  <si>
+    <t>vehicle_insurance_claims_history</t>
+  </si>
+  <si>
+    <t>claim_id</t>
+  </si>
+  <si>
+    <t>claim_date</t>
+  </si>
+  <si>
+    <t>claim_amount</t>
+  </si>
+  <si>
+    <t>claim_reason</t>
+  </si>
+  <si>
+    <t>claim_status</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> settlement_amount</t>
+  </si>
+  <si>
+    <t>settlement_date</t>
+  </si>
+  <si>
+    <t>serial</t>
+  </si>
+  <si>
+    <t>NUMERIC(10,2)</t>
+  </si>
+  <si>
+    <t>claim_status_table</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> claim_status_id</t>
+  </si>
+  <si>
+    <t>claim_status_name</t>
+  </si>
+  <si>
+    <t>SELECT , UPDATE , INSERT</t>
+  </si>
+  <si>
+    <t>transporter</t>
+  </si>
+  <si>
+    <t>drivers</t>
   </si>
 </sst>
 </file>
@@ -1067,7 +1151,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1091,7 +1175,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1409,15 +1492,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E971A767-F42F-4D75-9124-AF5DA9117968}">
-  <dimension ref="A1:B260"/>
+  <dimension ref="A1:B267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90"/>
+    <sheetView topLeftCell="A170" workbookViewId="0">
+      <selection activeCell="E178" sqref="E178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.90625" customWidth="1"/>
+    <col min="1" max="1" width="28.36328125" customWidth="1"/>
     <col min="2" max="2" width="22.6328125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1464,7 +1547,7 @@
         <v>36</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -1472,7 +1555,7 @@
         <v>35</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -1485,13 +1568,13 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B12" s="9"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>23</v>
@@ -1499,7 +1582,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>21</v>
@@ -1507,12 +1590,12 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B19" t="s">
         <v>23</v>
@@ -1528,7 +1611,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>17</v>
@@ -1608,7 +1691,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>23</v>
@@ -1627,7 +1710,7 @@
         <v>36</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
@@ -1635,7 +1718,7 @@
         <v>35</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
@@ -1700,10 +1783,10 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>119</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
@@ -1803,7 +1886,7 @@
         <v>49</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
@@ -1820,13 +1903,13 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="8" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B72" s="9"/>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A73" s="16" t="s">
-        <v>254</v>
+      <c r="A73" s="15" t="s">
+        <v>251</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>23</v>
@@ -1834,22 +1917,22 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="14" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A75" s="17" t="s">
-        <v>253</v>
+      <c r="A75" s="16" t="s">
+        <v>250</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A76" s="18"/>
+      <c r="A76" s="17"/>
       <c r="B76" s="13"/>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
@@ -1884,7 +1967,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>60</v>
@@ -1930,107 +2013,155 @@
         <v>19</v>
       </c>
     </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="B90" s="9"/>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A97" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="B97" s="9"/>
+      <c r="A97" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A103" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="B103" s="9"/>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B98" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A99" s="2" t="s">
+      <c r="B104" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B105" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="B99" s="3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A100" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="B100" s="5" t="s">
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B106" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A104" s="8" t="s">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A110" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B104" s="9"/>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A105" s="15" t="s">
+      <c r="B110" s="9"/>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A111" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B105" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A106" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A107" s="2" t="s">
+      <c r="B111" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A112" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A113" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B107" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A108" s="4" t="s">
+      <c r="B113" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A114" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B108" s="5" t="s">
+      <c r="B114" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A109" s="13"/>
-      <c r="B109" s="13"/>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A110" s="13"/>
-      <c r="B110" s="13"/>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A111" s="13"/>
-      <c r="B111" s="13"/>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A113" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B113" s="9"/>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A114" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A115" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B115" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="A115" s="13"/>
+      <c r="B115" s="13"/>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" s="13"/>
@@ -2040,229 +2171,215 @@
       <c r="A117" s="13"/>
       <c r="B117" s="13"/>
     </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A118" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B118" s="9"/>
+    </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A119" s="8" t="s">
+      <c r="A119" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A120" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A121" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A123" s="13"/>
+      <c r="B123" s="13"/>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A124" s="13"/>
+      <c r="B124" s="13"/>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A125" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B119" s="9"/>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A120" s="2"/>
-      <c r="B120" s="3"/>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A121" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A122" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A123" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A124" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A125" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B125" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="B125" s="9"/>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A128" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A129" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A130" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A131" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A132" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B127" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A128" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B128" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A132" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B132" s="9"/>
+      <c r="B132" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A134" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A138" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B133" s="3" t="s">
+      <c r="B138" s="9"/>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A139" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A140" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A141" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A142" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A134" s="2" t="s">
+      <c r="B142" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A143" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A145" s="2"/>
+      <c r="B145" s="3"/>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A146" s="2"/>
+      <c r="B146" s="3"/>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A147" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="B147" s="9"/>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A148" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A149" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="B134" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A135" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B135" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A136" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B136" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A137" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B137" s="5" t="s">
+      <c r="B149" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A150" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="B150" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A138" s="2"/>
-      <c r="B138" s="3"/>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A139" s="2"/>
-      <c r="B139" s="3"/>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A140" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="B140" s="9"/>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A141" s="16" t="s">
-        <v>252</v>
-      </c>
-      <c r="B141" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A142" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="B142" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A143" s="17" t="s">
-        <v>251</v>
-      </c>
-      <c r="B143" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A146" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B146" s="9"/>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A147" s="2" t="s">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A153" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B147" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A148" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B148" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A149" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B149" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A150" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B150" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A151" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B151" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A152" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B152" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A153" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B153" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="B153" s="9"/>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>23</v>
@@ -2270,124 +2387,150 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A156" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B156" s="5" t="s">
-        <v>23</v>
+      <c r="A156" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A157" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A158" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A159" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A160" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B160" s="9"/>
+      <c r="A160" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" s="2" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>103</v>
+        <v>23</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A163" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A167" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B162" s="3" t="s">
+      <c r="B167" s="9"/>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A168" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A169" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B169" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A163" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B163" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A164" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B164" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A165" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B165" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A169" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B169" s="9"/>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" s="2" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A171" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B171" s="5" t="s">
+      <c r="A171" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B171" s="3" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" s="8" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B176" s="9"/>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" s="2" t="s">
-        <v>104</v>
+        <v>43</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>111</v>
+        <v>23</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>83</v>
+        <v>18</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.35">
@@ -2398,15 +2541,15 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" s="2" t="s">
-        <v>33</v>
+        <v>105</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>23</v>
+        <v>112</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>18</v>
@@ -2414,21 +2557,21 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" s="4" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B190" s="9"/>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>23</v>
@@ -2436,7 +2579,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>18</v>
@@ -2447,18 +2590,18 @@
         <v>32</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B197" s="9"/>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" s="2" t="s">
-        <v>113</v>
+        <v>43</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>23</v>
@@ -2466,258 +2609,260 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" s="2" t="s">
-        <v>33</v>
+        <v>111</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A200" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B200" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A201" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B201" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A202" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B202" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A203" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B203" s="3" t="s">
-        <v>23</v>
+      <c r="A200" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B200" s="5" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A204" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B204" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="A204" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B204" s="9"/>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207" s="2" t="s">
-        <v>36</v>
+        <v>115</v>
       </c>
       <c r="B207" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A208" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A209" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A210" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A211" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A212" s="2" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A208" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B208" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A212" s="1" t="s">
-        <v>121</v>
+      <c r="B212" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A213" t="s">
-        <v>120</v>
-      </c>
-      <c r="B213" t="s">
-        <v>23</v>
+      <c r="A213" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A215" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B215" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A219" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A220" t="s">
+        <v>121</v>
+      </c>
+      <c r="B220" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A221" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B214" s="3" t="s">
+      <c r="B221" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A215" s="2" t="s">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A222" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B215" s="3" t="s">
+      <c r="B222" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A216" s="2" t="s">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A223" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B223" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B216" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A217" s="2" t="s">
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A224" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B217" s="3" t="s">
+      <c r="B224" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A218" s="2" t="s">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A225" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B218" s="3" t="s">
+      <c r="B225" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A219" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B219" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A220" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B220" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A221" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B221" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A225" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B225" s="9"/>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A226" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B226" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A227" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B227" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A228" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B228" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A232" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B232" s="9"/>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A233" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B226" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A227" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B227" s="5" t="s">
+      <c r="B233" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A234" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B234" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A231" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B231" s="9"/>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A232" s="2" t="s">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A238" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B238" s="9"/>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A239" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B232" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A233" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="B233" s="5" t="s">
+      <c r="B239" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A240" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B240" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A237" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B237" s="9"/>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A238" s="2" t="s">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A244" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B244" s="9"/>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A245" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B238" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A239" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="B239" s="5" t="s">
+      <c r="B245" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A246" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B246" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A243" s="8"/>
-      <c r="B243" s="9"/>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A244" s="2"/>
-      <c r="B244" s="3"/>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A245" s="2"/>
-      <c r="B245" s="3"/>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A246" s="2"/>
-      <c r="B246" s="3"/>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A247" s="2"/>
-      <c r="B247" s="3"/>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A248" s="2"/>
-      <c r="B248" s="3"/>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A249" s="2"/>
-      <c r="B249" s="3"/>
-    </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A250" s="2"/>
-      <c r="B250" s="3"/>
+      <c r="A250" s="8"/>
+      <c r="B250" s="9"/>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A251" s="2"/>
@@ -2752,12 +2897,40 @@
       <c r="B258" s="3"/>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A259" s="11"/>
+      <c r="A259" s="2"/>
       <c r="B259" s="3"/>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A260" s="4"/>
-      <c r="B260" s="5"/>
+      <c r="A260" s="2"/>
+      <c r="B260" s="3"/>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A261" s="2"/>
+      <c r="B261" s="3"/>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A262" s="2"/>
+      <c r="B262" s="3"/>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A263" s="2"/>
+      <c r="B263" s="3"/>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A264" s="2"/>
+      <c r="B264" s="3"/>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A265" s="2"/>
+      <c r="B265" s="3"/>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A266" s="11"/>
+      <c r="B266" s="3"/>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A267" s="4"/>
+      <c r="B267" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2767,11 +2940,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB499724-65CB-4F13-8120-13A79F1C18BE}">
-  <dimension ref="A1:B126"/>
+  <dimension ref="A1:B146"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="A85" sqref="A85"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2781,13 +2952,13 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B1" s="9"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>23</v>
@@ -2795,7 +2966,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>23</v>
@@ -2803,15 +2974,15 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>23</v>
@@ -2819,7 +2990,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>23</v>
@@ -2827,7 +2998,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>62</v>
@@ -2835,7 +3006,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>62</v>
@@ -2843,39 +3014,39 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>142</v>
+        <v>272</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>62</v>
@@ -2883,7 +3054,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>62</v>
@@ -2891,7 +3062,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>23</v>
@@ -2899,18 +3070,18 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -2925,7 +3096,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>149</v>
@@ -2936,7 +3107,7 @@
         <v>144</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -2968,7 +3139,7 @@
         <v>34</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
@@ -2976,7 +3147,7 @@
         <v>35</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
@@ -3018,7 +3189,7 @@
         <v>161</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
@@ -3026,7 +3197,7 @@
         <v>162</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
@@ -3034,7 +3205,7 @@
         <v>163</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
@@ -3042,7 +3213,7 @@
         <v>164</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
@@ -3050,7 +3221,7 @@
         <v>165</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
@@ -3058,7 +3229,7 @@
         <v>166</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
@@ -3120,7 +3291,7 @@
         <v>153</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
@@ -3128,15 +3299,15 @@
         <v>154</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
@@ -3144,7 +3315,7 @@
         <v>155</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
@@ -3182,7 +3353,7 @@
         <v>161</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
@@ -3190,7 +3361,7 @@
         <v>174</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
@@ -3251,7 +3422,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>183</v>
@@ -3270,7 +3441,7 @@
         <v>182</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
@@ -3278,7 +3449,7 @@
         <v>163</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
@@ -3286,7 +3457,7 @@
         <v>164</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
@@ -3294,7 +3465,7 @@
         <v>165</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
@@ -3302,7 +3473,7 @@
         <v>185</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
@@ -3310,7 +3481,7 @@
         <v>186</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
@@ -3337,7 +3508,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>23</v>
@@ -3356,7 +3527,7 @@
         <v>190</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
@@ -3364,7 +3535,7 @@
         <v>163</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
@@ -3372,7 +3543,7 @@
         <v>164</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
@@ -3399,7 +3570,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>23</v>
@@ -3410,7 +3581,7 @@
         <v>193</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
@@ -3418,7 +3589,7 @@
         <v>194</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
@@ -3426,7 +3597,7 @@
         <v>195</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
@@ -3466,7 +3637,7 @@
         <v>199</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
@@ -3474,7 +3645,7 @@
         <v>200</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
@@ -3482,7 +3653,7 @@
         <v>201</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
@@ -3490,7 +3661,7 @@
         <v>202</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
@@ -3533,7 +3704,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>211</v>
@@ -3557,7 +3728,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>183</v>
@@ -3576,7 +3747,7 @@
         <v>36</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
@@ -3584,7 +3755,7 @@
         <v>35</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
@@ -3593,6 +3764,114 @@
       </c>
       <c r="B126" s="5" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A130" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="B130" s="9"/>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A131" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A132" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A133" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A134" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A135" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A136" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A137" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A138" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A139" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A140" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A144" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="B144" s="9"/>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A145" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A146" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -3603,10 +3882,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37B55EB4-751E-4260-AC38-F3846301219E}">
-  <dimension ref="A1:C133"/>
+  <dimension ref="A1:C137"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D133" sqref="D133"/>
+    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="B137" sqref="B137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3651,12 +3930,12 @@
         <v>220</v>
       </c>
       <c r="C4" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C5" t="s">
         <v>219</v>
@@ -3691,7 +3970,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C12" t="s">
         <v>219</v>
@@ -3705,45 +3984,45 @@
         <v>216</v>
       </c>
       <c r="C16" t="s">
-        <v>223</v>
+        <v>286</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B17" t="s">
         <v>218</v>
       </c>
       <c r="C17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B18" t="s">
         <v>220</v>
       </c>
       <c r="C18" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B19" t="s">
+        <v>221</v>
+      </c>
+      <c r="C19" t="s">
         <v>222</v>
-      </c>
-      <c r="C19" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
@@ -3759,7 +4038,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B25" t="s">
         <v>218</v>
@@ -3770,7 +4049,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B26" t="s">
         <v>220</v>
@@ -3781,7 +4060,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C27" t="s">
         <v>219</v>
@@ -3816,7 +4095,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C34" t="s">
         <v>219</v>
@@ -3838,7 +4117,7 @@
         <v>218</v>
       </c>
       <c r="C39" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
@@ -3846,15 +4125,15 @@
         <v>220</v>
       </c>
       <c r="C40" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C41" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
@@ -3881,20 +4160,20 @@
         <v>220</v>
       </c>
       <c r="C47" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C48" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B52" t="s">
         <v>216</v>
@@ -3916,15 +4195,15 @@
         <v>220</v>
       </c>
       <c r="C54" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B55" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C55" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
@@ -3943,7 +4222,7 @@
         <v>218</v>
       </c>
       <c r="C60" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
@@ -3951,20 +4230,20 @@
         <v>220</v>
       </c>
       <c r="C61" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B62" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C62" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B66" t="s">
         <v>216</v>
@@ -3986,20 +4265,20 @@
         <v>220</v>
       </c>
       <c r="C68" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B69" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C69" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B73" t="s">
         <v>216</v>
@@ -4013,7 +4292,7 @@
         <v>218</v>
       </c>
       <c r="C74" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
@@ -4021,64 +4300,64 @@
         <v>220</v>
       </c>
       <c r="C75" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B76" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C76" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B80" t="s">
         <v>216</v>
       </c>
       <c r="C80" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B81" t="s">
         <v>218</v>
       </c>
       <c r="C81" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B82" t="s">
         <v>220</v>
       </c>
       <c r="C82" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B83" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C83" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
@@ -4105,15 +4384,15 @@
         <v>220</v>
       </c>
       <c r="C90" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B91" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C91" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
@@ -4132,7 +4411,7 @@
         <v>218</v>
       </c>
       <c r="C96" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
@@ -4140,15 +4419,15 @@
         <v>220</v>
       </c>
       <c r="C97" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B98" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C98" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
@@ -4175,15 +4454,15 @@
         <v>220</v>
       </c>
       <c r="C104" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B105" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C105" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.35">
@@ -4202,7 +4481,7 @@
         <v>218</v>
       </c>
       <c r="C110" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.35">
@@ -4215,7 +4494,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B112" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C112" t="s">
         <v>219</v>
@@ -4237,7 +4516,7 @@
         <v>218</v>
       </c>
       <c r="C117" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.35">
@@ -4250,7 +4529,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B119" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C119" t="s">
         <v>219</v>
@@ -4258,18 +4537,18 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B123" t="s">
         <v>216</v>
       </c>
       <c r="C123" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B124" t="s">
         <v>218</v>
@@ -4277,7 +4556,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B125" t="s">
         <v>220</v>
@@ -4285,21 +4564,21 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B126" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B130" t="s">
         <v>216</v>
       </c>
       <c r="C130" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.35">
@@ -4320,10 +4599,23 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B133" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C133" t="s">
         <v>219</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A136" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B136" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B137" t="s">
+        <v>288</v>
       </c>
     </row>
   </sheetData>

--- a/DB_schema_broker_retailer.xlsx
+++ b/DB_schema_broker_retailer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pragalya Kanakaraj\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF2634E6-88B4-438C-969B-6B2C0EAEFC57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B6C261F-4B0C-4905-9458-8242624F4DD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{893E6BC4-BA8D-4CB6-8A87-F5D96D0468C5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="296">
   <si>
     <t xml:space="preserve"> bid</t>
   </si>
@@ -1010,6 +1010,27 @@
   </si>
   <si>
     <t>drivers</t>
+  </si>
+  <si>
+    <t>master_language</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>language_id</t>
+  </si>
+  <si>
+    <t>SELECT ,UPDATE</t>
+  </si>
+  <si>
+    <t>It has the details of mandi</t>
+  </si>
+  <si>
+    <t>incharge and their details</t>
+  </si>
+  <si>
+    <t>that are updated by wholesellers</t>
   </si>
 </sst>
 </file>
@@ -1151,7 +1172,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1174,10 +1195,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1492,10 +1512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E971A767-F42F-4D75-9124-AF5DA9117968}">
-  <dimension ref="A1:B267"/>
+  <dimension ref="A1:C269"/>
   <sheetViews>
-    <sheetView topLeftCell="A170" workbookViewId="0">
-      <selection activeCell="E178" sqref="E178"/>
+    <sheetView topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1698,7 +1718,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -1857,7 +1877,7 @@
       </c>
       <c r="B64" s="9"/>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
         <v>46</v>
       </c>
@@ -1865,7 +1885,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
         <v>47</v>
       </c>
@@ -1873,7 +1893,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
         <v>48</v>
       </c>
@@ -1881,7 +1901,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
         <v>49</v>
       </c>
@@ -1889,7 +1909,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" s="4" t="s">
         <v>32</v>
       </c>
@@ -1897,343 +1917,316 @@
         <v>50</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A70" s="13"/>
-      <c r="B70" s="13"/>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="8" t="s">
         <v>250</v>
       </c>
       <c r="B72" s="9"/>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A73" s="15" t="s">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A73" s="2" t="s">
         <v>251</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A74" s="14" t="s">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B74" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A75" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B74" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A75" s="16" t="s">
+      <c r="B75" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C75" s="3"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B76" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A76" s="17"/>
-      <c r="B76" s="13"/>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A78" s="8" t="s">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A79" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B78" s="9"/>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A79" s="2" t="s">
+      <c r="B79" s="9"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A80" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B80" s="3" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A80" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
-        <v>260</v>
+        <v>59</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
-        <v>53</v>
+        <v>260</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B87" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A87" s="4" t="s">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B87" s="5" t="s">
+      <c r="B88" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A90" s="8" t="s">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="B90" s="9"/>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A91" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="B91" s="9"/>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>245</v>
+        <v>39</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>39</v>
+        <v>258</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>262</v>
+        <v>39</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A99" s="4" t="s">
+      <c r="A99" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="B99" s="5" t="s">
+      <c r="B100" s="5" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A103" s="8" t="s">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="B103" s="9"/>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A104" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="B104" s="9"/>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="B106" s="3" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A106" s="4" t="s">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="B106" s="5" t="s">
+      <c r="B107" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A110" s="8" t="s">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A111" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B110" s="9"/>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A111" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="B111" s="9"/>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" s="2" t="s">
-        <v>271</v>
+        <v>43</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>267</v>
+        <v>23</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A114" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B113" s="3" t="s">
+      <c r="B114" s="3" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A114" s="4" t="s">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A115" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B114" s="5" t="s">
+      <c r="B115" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A115" s="13"/>
-      <c r="B115" s="13"/>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A116" s="13"/>
-      <c r="B116" s="13"/>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A117" s="13"/>
-      <c r="B117" s="13"/>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A118" s="8" t="s">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A119" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B118" s="9"/>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A119" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>245</v>
-      </c>
+      <c r="B119" s="9"/>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A121" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B120" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A121" s="4" t="s">
+      <c r="B121" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A122" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="B121" s="5" t="s">
+      <c r="B122" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A123" s="13"/>
-      <c r="B123" s="13"/>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A124" s="13"/>
-      <c r="B124" s="13"/>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A125" s="8" t="s">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A126" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B125" s="9"/>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A126" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="B126" s="9"/>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" s="2" t="s">
-        <v>247</v>
+        <v>69</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" s="2" t="s">
-        <v>71</v>
+        <v>247</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>18</v>
@@ -2241,15 +2234,15 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>23</v>
@@ -2257,169 +2250,169 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A134" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B133" s="3" t="s">
+      <c r="B134" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A134" s="4" t="s">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A135" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B134" s="5" t="s">
+      <c r="B135" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A138" s="8" t="s">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A139" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B138" s="9"/>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A139" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B139" s="3" t="s">
-        <v>82</v>
-      </c>
+      <c r="B139" s="9"/>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" s="2" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A143" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B142" s="3" t="s">
+      <c r="B143" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A143" s="4" t="s">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A144" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B143" s="5" t="s">
+      <c r="B144" s="5" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A145" s="2"/>
-      <c r="B145" s="3"/>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" s="2"/>
       <c r="B146" s="3"/>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A147" s="8" t="s">
+      <c r="A147" s="2"/>
+      <c r="B147" s="3"/>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A148" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="B147" s="9"/>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A148" s="15" t="s">
+      <c r="B148" s="9"/>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A149" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="B148" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A149" s="14" t="s">
+      <c r="B149" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A150" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A151" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B149" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A150" s="16" t="s">
+      <c r="B151" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A152" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="B150" s="5" t="s">
+      <c r="B152" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A153" s="8" t="s">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A155" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B153" s="9"/>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A154" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B154" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A155" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B155" s="3" t="s">
-        <v>83</v>
-      </c>
+      <c r="B155" s="9"/>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>19</v>
@@ -2427,510 +2420,536 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A163" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A164" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B162" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A163" s="4" t="s">
+      <c r="B164" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A165" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B163" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A167" s="8" t="s">
+      <c r="B165" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A169" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B167" s="9"/>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A168" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B168" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A169" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B169" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="B169" s="9"/>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" s="2" t="s">
-        <v>98</v>
+        <v>43</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>19</v>
+        <v>104</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A172" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A173" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B171" s="3" t="s">
+      <c r="B173" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A172" s="4" t="s">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A174" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B172" s="5" t="s">
+      <c r="B174" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A176" s="8" t="s">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A178" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="B176" s="9"/>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A177" s="2" t="s">
+      <c r="B178" s="9"/>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A179" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B177" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A178" s="2" t="s">
+      <c r="B179" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A180" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B178" s="3" t="s">
+      <c r="B180" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A179" s="4" t="s">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A181" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B179" s="5" t="s">
+      <c r="B181" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A183" s="8" t="s">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A185" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="B183" s="9"/>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A184" s="2" t="s">
+      <c r="B185" s="9"/>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A186" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B184" s="3" t="s">
+      <c r="B186" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A185" s="2" t="s">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A187" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B185" s="3" t="s">
+      <c r="B187" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A186" s="4" t="s">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A188" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B186" s="5" t="s">
+      <c r="B188" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A190" s="8" t="s">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A192" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B190" s="9"/>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A191" s="2" t="s">
+      <c r="B192" s="9"/>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A193" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B191" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A192" s="2" t="s">
+      <c r="B193" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A194" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B192" s="3" t="s">
+      <c r="B194" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A193" s="4" t="s">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A195" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B193" s="5" t="s">
+      <c r="B195" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A197" s="8" t="s">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A199" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="B197" s="9"/>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A198" s="2" t="s">
+      <c r="B199" s="9"/>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A200" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B198" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A199" s="2" t="s">
+      <c r="B200" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A201" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B199" s="3" t="s">
+      <c r="B201" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A200" s="4" t="s">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A202" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B200" s="5" t="s">
+      <c r="B202" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A204" s="8" t="s">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A206" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="B204" s="9"/>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A205" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B205" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A206" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B206" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="B206" s="9"/>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208" s="2" t="s">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A209" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>18</v>
+        <v>83</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A210" s="2" t="s">
-        <v>64</v>
+        <v>116</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211" s="2" t="s">
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A212" s="2" t="s">
-        <v>118</v>
+        <v>64</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A213" s="2" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A215" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A216" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B214" s="3" t="s">
+      <c r="B216" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A215" s="4" t="s">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A217" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B215" s="5" t="s">
+      <c r="B217" s="5" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A219" s="1" t="s">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A221" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A220" t="s">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A222" t="s">
         <v>121</v>
       </c>
-      <c r="B220" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A221" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B221" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A222" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B222" s="3" t="s">
-        <v>38</v>
+      <c r="B222" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A223" s="2" t="s">
-        <v>120</v>
+        <v>37</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>119</v>
+        <v>39</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A224" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A225" s="2" t="s">
-        <v>31</v>
+        <v>120</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>40</v>
+        <v>119</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A226" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A227" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B227" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A228" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B228" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A229" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B227" s="3" t="s">
+      <c r="B229" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A228" s="4" t="s">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A230" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B228" s="5" t="s">
+      <c r="B230" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A232" s="8" t="s">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A234" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="B232" s="9"/>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A233" s="2" t="s">
+      <c r="B234" s="9"/>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A235" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B233" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A234" s="4" t="s">
+      <c r="B235" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A236" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B234" s="5" t="s">
+      <c r="B236" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A238" s="8" t="s">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A240" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="B238" s="9"/>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A239" s="2" t="s">
+      <c r="B240" s="9"/>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A241" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B239" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A240" s="4" t="s">
+      <c r="B241" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A242" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B240" s="5" t="s">
+      <c r="B242" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A244" s="8" t="s">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A246" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B244" s="9"/>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A245" s="2" t="s">
+      <c r="B246" s="9"/>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A247" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B245" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A246" s="4" t="s">
+      <c r="B247" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A248" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B246" s="5" t="s">
+      <c r="B248" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A250" s="8"/>
-      <c r="B250" s="9"/>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A251" s="2"/>
-      <c r="B251" s="3"/>
-    </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A252" s="2"/>
-      <c r="B252" s="3"/>
+      <c r="A252" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="B252" s="9"/>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A253" s="2"/>
-      <c r="B253" s="3"/>
+      <c r="A253" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B253" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A254" s="2"/>
-      <c r="B254" s="3"/>
+      <c r="A254" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="B254" s="5" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A255" s="2"/>
-      <c r="B255" s="3"/>
+      <c r="A255" s="13"/>
+      <c r="B255" s="13"/>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A256" s="2"/>
-      <c r="B256" s="3"/>
+      <c r="A256" s="13"/>
+      <c r="B256" s="13"/>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A257" s="2"/>
-      <c r="B257" s="3"/>
+      <c r="A257" s="13"/>
+      <c r="B257" s="13"/>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A258" s="2"/>
-      <c r="B258" s="3"/>
+      <c r="A258" s="13"/>
+      <c r="B258" s="13"/>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A259" s="2"/>
-      <c r="B259" s="3"/>
+      <c r="A259" s="13"/>
+      <c r="B259" s="13"/>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A260" s="2"/>
-      <c r="B260" s="3"/>
+      <c r="A260" s="13"/>
+      <c r="B260" s="13"/>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A261" s="2"/>
-      <c r="B261" s="3"/>
+      <c r="A261" s="13"/>
+      <c r="B261" s="13"/>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A262" s="2"/>
-      <c r="B262" s="3"/>
+      <c r="A262" s="13"/>
+      <c r="B262" s="13"/>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A263" s="2"/>
-      <c r="B263" s="3"/>
+      <c r="A263" s="13"/>
+      <c r="B263" s="13"/>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A264" s="2"/>
-      <c r="B264" s="3"/>
+      <c r="A264" s="13"/>
+      <c r="B264" s="13"/>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A265" s="2"/>
-      <c r="B265" s="3"/>
+      <c r="A265" s="13"/>
+      <c r="B265" s="13"/>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A266" s="11"/>
-      <c r="B266" s="3"/>
+      <c r="A266" s="13"/>
+      <c r="B266" s="13"/>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A267" s="4"/>
-      <c r="B267" s="5"/>
+      <c r="A267" s="13"/>
+      <c r="B267" s="13"/>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A268" s="14"/>
+      <c r="B268" s="13"/>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A269" s="13"/>
+      <c r="B269" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3882,10 +3901,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37B55EB4-751E-4260-AC38-F3846301219E}">
-  <dimension ref="A1:C137"/>
+  <dimension ref="A1:C138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="B137" sqref="B137"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3907,62 +3926,59 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>216</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>217</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
-        <v>218</v>
-      </c>
-      <c r="C3" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C4" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
         <v>221</v>
       </c>
-      <c r="C5" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
+      <c r="C6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>216</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>217</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B10" t="s">
-        <v>218</v>
-      </c>
-      <c r="C10" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C11" t="s">
         <v>219</v>
@@ -3970,40 +3986,37 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C12" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>221</v>
+      </c>
+      <c r="C13" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>216</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>286</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>223</v>
-      </c>
-      <c r="B17" t="s">
-        <v>218</v>
-      </c>
-      <c r="C17" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B18" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C18" t="s">
         <v>222</v>
@@ -4011,10 +4024,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C19" t="s">
         <v>222</v>
@@ -4022,107 +4035,110 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
+        <v>225</v>
+      </c>
+      <c r="B20" t="s">
+        <v>221</v>
+      </c>
+      <c r="C20" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>226</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" t="s">
-        <v>216</v>
-      </c>
-      <c r="C24" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="B25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C25" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B26" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C26" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="B27" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C27" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B28" t="s">
+        <v>221</v>
+      </c>
+      <c r="C28" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>216</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C32" t="s">
         <v>217</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B32" t="s">
-        <v>218</v>
-      </c>
-      <c r="C32" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C33" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C34" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" s="1" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B35" t="s">
+        <v>221</v>
+      </c>
+      <c r="C35" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>216</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C39" t="s">
         <v>217</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B39" t="s">
-        <v>218</v>
-      </c>
-      <c r="C39" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C40" t="s">
         <v>227</v>
@@ -4130,204 +4146,210 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C41" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45" s="1" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B42" t="s">
+        <v>221</v>
+      </c>
+      <c r="C42" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B46" t="s">
         <v>216</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C46" t="s">
         <v>217</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B46" t="s">
-        <v>218</v>
-      </c>
-      <c r="C46" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C47" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C48" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52" s="1" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B49" t="s">
+        <v>221</v>
+      </c>
+      <c r="C49" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B53" t="s">
         <v>216</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C53" t="s">
         <v>217</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B53" t="s">
-        <v>218</v>
-      </c>
-      <c r="C53" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B54" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C54" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B55" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C55" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A59" s="1" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B56" t="s">
+        <v>221</v>
+      </c>
+      <c r="C56" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B60" t="s">
         <v>216</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C60" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B60" t="s">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>293</v>
+      </c>
+      <c r="B61" t="s">
         <v>218</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C61" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B61" t="s">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>294</v>
+      </c>
+      <c r="B62" t="s">
         <v>220</v>
-      </c>
-      <c r="C61" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B62" t="s">
-        <v>221</v>
       </c>
       <c r="C62" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A66" s="1" t="s">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>295</v>
+      </c>
+      <c r="B63" t="s">
+        <v>221</v>
+      </c>
+      <c r="C63" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B67" t="s">
         <v>216</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C67" t="s">
         <v>217</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B67" t="s">
-        <v>218</v>
-      </c>
-      <c r="C67" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B68" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C68" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B69" t="s">
+        <v>220</v>
+      </c>
+      <c r="C69" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B70" t="s">
         <v>221</v>
       </c>
-      <c r="C69" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A73" s="1" t="s">
+      <c r="C70" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B74" t="s">
         <v>216</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C74" t="s">
         <v>217</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B74" t="s">
-        <v>218</v>
-      </c>
-      <c r="C74" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B75" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C75" t="s">
-        <v>231</v>
+        <v>292</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B76" t="s">
+        <v>220</v>
+      </c>
+      <c r="C76" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B77" t="s">
         <v>221</v>
       </c>
-      <c r="C76" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A80" s="1" t="s">
+      <c r="C77" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B81" t="s">
         <v>216</v>
-      </c>
-      <c r="C80" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
-        <v>223</v>
-      </c>
-      <c r="B81" t="s">
-        <v>218</v>
       </c>
       <c r="C81" t="s">
         <v>231</v>
@@ -4335,45 +4357,48 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B82" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C82" t="s">
-        <v>231</v>
+        <v>292</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B83" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C83" t="s">
-        <v>231</v>
+        <v>292</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
+        <v>225</v>
+      </c>
+      <c r="B84" t="s">
+        <v>221</v>
+      </c>
+      <c r="C84" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A88" s="1" t="s">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A89" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B89" t="s">
         <v>216</v>
-      </c>
-      <c r="C88" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B89" t="s">
-        <v>218</v>
       </c>
       <c r="C89" t="s">
         <v>219</v>
@@ -4381,69 +4406,69 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B90" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C90" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B91" t="s">
+        <v>220</v>
+      </c>
+      <c r="C91" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B92" t="s">
         <v>221</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C92" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A95" s="1" t="s">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A96" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B96" t="s">
         <v>216</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C96" t="s">
         <v>219</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B96" t="s">
-        <v>218</v>
-      </c>
-      <c r="C96" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B97" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C97" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B98" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C98" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A102" s="1" t="s">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B99" t="s">
+        <v>221</v>
+      </c>
+      <c r="C99" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A103" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B103" t="s">
         <v>216</v>
-      </c>
-      <c r="C102" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B103" t="s">
-        <v>218</v>
       </c>
       <c r="C103" t="s">
         <v>219</v>
@@ -4451,147 +4476,147 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B104" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C104" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B105" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C105" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A109" s="1" t="s">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B106" t="s">
+        <v>221</v>
+      </c>
+      <c r="C106" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A110" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B110" t="s">
         <v>216</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C110" t="s">
         <v>219</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B110" t="s">
-        <v>218</v>
-      </c>
-      <c r="C110" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B111" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C111" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B112" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C112" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A116" s="1" t="s">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B113" t="s">
+        <v>221</v>
+      </c>
+      <c r="C113" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A117" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B117" t="s">
         <v>216</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C117" t="s">
         <v>219</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B117" t="s">
-        <v>218</v>
-      </c>
-      <c r="C117" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B118" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C118" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B119" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C119" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A123" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B123" t="s">
-        <v>216</v>
-      </c>
-      <c r="C123" t="s">
-        <v>232</v>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B120" t="s">
+        <v>221</v>
+      </c>
+      <c r="C120" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B124" t="s">
-        <v>218</v>
+        <v>216</v>
+      </c>
+      <c r="C124" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B125" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B126" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A127" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B127" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A130" s="1" t="s">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A131" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B131" t="s">
         <v>216</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C131" t="s">
         <v>236</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B131" t="s">
-        <v>218</v>
-      </c>
-      <c r="C131" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B132" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C132" t="s">
         <v>219</v>
@@ -4599,22 +4624,30 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B133" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C133" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A136" s="1" t="s">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B134" t="s">
+        <v>221</v>
+      </c>
+      <c r="C134" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A137" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B137" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B137" t="s">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B138" t="s">
         <v>288</v>
       </c>
     </row>

--- a/DB_schema_broker_retailer.xlsx
+++ b/DB_schema_broker_retailer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pragalya Kanakaraj\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B6C261F-4B0C-4905-9458-8242624F4DD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{442A3832-6D48-4D8B-9EE1-DA31FD96EEF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{893E6BC4-BA8D-4CB6-8A87-F5D96D0468C5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{893E6BC4-BA8D-4CB6-8A87-F5D96D0468C5}"/>
   </bookViews>
   <sheets>
     <sheet name="static_Tables" sheetId="1" r:id="rId1"/>
@@ -886,9 +886,6 @@
     <t>b_privilege_user</t>
   </si>
   <si>
-    <t>mandi_abbrevation</t>
-  </si>
-  <si>
     <t>product_regional_name</t>
   </si>
   <si>
@@ -952,15 +949,9 @@
     <t>int (fk frm master_state)</t>
   </si>
   <si>
-    <t>state_acronyms</t>
-  </si>
-  <si>
     <t>state_name</t>
   </si>
   <si>
-    <t>city_acronyms</t>
-  </si>
-  <si>
     <t xml:space="preserve">int </t>
   </si>
   <si>
@@ -1031,6 +1022,15 @@
   </si>
   <si>
     <t>that are updated by wholesellers</t>
+  </si>
+  <si>
+    <t>city_shortnames</t>
+  </si>
+  <si>
+    <t>state_shortnames</t>
+  </si>
+  <si>
+    <t>mandi_shortnames</t>
   </si>
 </sst>
 </file>
@@ -1514,8 +1514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E971A767-F42F-4D75-9124-AF5DA9117968}">
   <dimension ref="A1:C269"/>
   <sheetViews>
-    <sheetView topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="D74" sqref="D74"/>
+    <sheetView tabSelected="1" topLeftCell="A185" workbookViewId="0">
+      <selection activeCell="A128" sqref="A128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1919,13 +1919,13 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B72" s="9"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>23</v>
@@ -1933,7 +1933,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B74" s="13" t="s">
         <v>23</v>
@@ -1941,7 +1941,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>23</v>
@@ -1950,7 +1950,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>83</v>
@@ -1988,7 +1988,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>60</v>
@@ -2036,13 +2036,13 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B91" s="9"/>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>23</v>
@@ -2050,7 +2050,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>39</v>
@@ -2058,7 +2058,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>245</v>
@@ -2066,15 +2066,15 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B95" s="3" t="s">
         <v>257</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>39</v>
@@ -2082,34 +2082,34 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B97" s="3" t="s">
         <v>261</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B98" s="3" t="s">
         <v>263</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
@@ -2128,7 +2128,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" s="2" t="s">
-        <v>271</v>
+        <v>293</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>245</v>
@@ -2158,10 +2158,10 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" s="2" t="s">
-        <v>271</v>
+        <v>293</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
@@ -2169,7 +2169,7 @@
         <v>67</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
@@ -2188,7 +2188,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" s="2" t="s">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>245</v>
@@ -2204,7 +2204,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" s="4" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B122" s="5" t="s">
         <v>18</v>
@@ -2226,7 +2226,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" s="2" t="s">
-        <v>247</v>
+        <v>295</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>18</v>
@@ -2344,13 +2344,13 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B148" s="9"/>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>23</v>
@@ -2358,7 +2358,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>23</v>
@@ -2374,7 +2374,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B152" s="5" t="s">
         <v>83</v>
@@ -2871,7 +2871,7 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A252" s="8" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B252" s="9"/>
     </row>
@@ -2885,7 +2885,7 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A254" s="4" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B254" s="5" t="s">
         <v>38</v>
@@ -3060,7 +3060,7 @@
         <v>136</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -3787,16 +3787,16 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" s="8" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B130" s="9"/>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
@@ -3809,7 +3809,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>62</v>
@@ -3817,15 +3817,15 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>18</v>
@@ -3833,7 +3833,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>23</v>
@@ -3841,15 +3841,15 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B137" s="3" t="s">
         <v>279</v>
-      </c>
-      <c r="B137" s="3" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" s="2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>62</v>
@@ -3860,7 +3860,7 @@
         <v>36</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
@@ -3868,26 +3868,26 @@
         <v>35</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" s="8" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B144" s="9"/>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" s="4" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B146" s="5" t="s">
         <v>38</v>
@@ -3903,7 +3903,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37B55EB4-751E-4260-AC38-F3846301219E}">
   <dimension ref="A1:C138"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A118" workbookViewId="0">
       <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
@@ -4008,7 +4008,7 @@
         <v>216</v>
       </c>
       <c r="C17" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -4243,7 +4243,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B61" t="s">
         <v>218</v>
@@ -4254,7 +4254,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B62" t="s">
         <v>220</v>
@@ -4265,7 +4265,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B63" t="s">
         <v>221</v>
@@ -4325,7 +4325,7 @@
         <v>218</v>
       </c>
       <c r="C75" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
@@ -4333,7 +4333,7 @@
         <v>220</v>
       </c>
       <c r="C76" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
@@ -4341,7 +4341,7 @@
         <v>221</v>
       </c>
       <c r="C77" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
@@ -4363,7 +4363,7 @@
         <v>218</v>
       </c>
       <c r="C82" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
@@ -4374,7 +4374,7 @@
         <v>220</v>
       </c>
       <c r="C83" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
@@ -4385,7 +4385,7 @@
         <v>221</v>
       </c>
       <c r="C84" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
@@ -4643,12 +4643,12 @@
         <v>126</v>
       </c>
       <c r="B137" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B138" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>

--- a/DB_schema_broker_retailer.xlsx
+++ b/DB_schema_broker_retailer.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pragalya Kanakaraj\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{442A3832-6D48-4D8B-9EE1-DA31FD96EEF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{144E3013-38FE-4548-8BE1-D0415F374268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{893E6BC4-BA8D-4CB6-8A87-F5D96D0468C5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{893E6BC4-BA8D-4CB6-8A87-F5D96D0468C5}"/>
   </bookViews>
   <sheets>
     <sheet name="static_Tables" sheetId="1" r:id="rId1"/>
-    <sheet name="dynamic_table" sheetId="2" r:id="rId2"/>
-    <sheet name="roles_access_to_each_table" sheetId="3" r:id="rId3"/>
+    <sheet name="triggers" sheetId="4" r:id="rId2"/>
+    <sheet name="dynamic_table" sheetId="2" r:id="rId3"/>
+    <sheet name="roles_access_to_each_table" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="311">
   <si>
     <t xml:space="preserve"> bid</t>
   </si>
@@ -1031,6 +1032,51 @@
   </si>
   <si>
     <t>mandi_shortnames</t>
+  </si>
+  <si>
+    <t>trigger_update_amt</t>
+  </si>
+  <si>
+    <t>triggers</t>
+  </si>
+  <si>
+    <t>tables</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>This will calculate the amount of item wrt price of product and quantity selected.</t>
+  </si>
+  <si>
+    <t>Updates total_amount in order_table based onsum all items for that has same order_id</t>
+  </si>
+  <si>
+    <t>trigger_update_total_order_amount</t>
+  </si>
+  <si>
+    <t>trigger_update_order_history</t>
+  </si>
+  <si>
+    <t>If there is an update in order_status it's been recorded in order_history_table</t>
+  </si>
+  <si>
+    <t>check_duplicate_registration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checks if the b_registrationnumber is unique before inserting new </t>
+  </si>
+  <si>
+    <t>trigger_insert_business_user</t>
+  </si>
+  <si>
+    <t>trigger_insert_user</t>
+  </si>
+  <si>
+    <t>checks if active_stautus = 1 in business_table , then enter the username , password in business_user_table</t>
+  </si>
+  <si>
+    <t>checks if active_stautus = 1 in user_table , then enter the username , password in users.</t>
   </si>
 </sst>
 </file>
@@ -1172,7 +1218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1194,8 +1240,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1512,10 +1557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E971A767-F42F-4D75-9124-AF5DA9117968}">
-  <dimension ref="A1:C269"/>
+  <dimension ref="A1:C268"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A185" workbookViewId="0">
-      <selection activeCell="A128" sqref="A128"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B258" sqref="B258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1935,7 +1980,7 @@
       <c r="A74" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B74" s="13" t="s">
+      <c r="B74" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2891,65 +2936,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A255" s="13"/>
-      <c r="B255" s="13"/>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A256" s="13"/>
-      <c r="B256" s="13"/>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A257" s="13"/>
-      <c r="B257" s="13"/>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A258" s="13"/>
-      <c r="B258" s="13"/>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A259" s="13"/>
-      <c r="B259" s="13"/>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A260" s="13"/>
-      <c r="B260" s="13"/>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A261" s="13"/>
-      <c r="B261" s="13"/>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A262" s="13"/>
-      <c r="B262" s="13"/>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A263" s="13"/>
-      <c r="B263" s="13"/>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A264" s="13"/>
-      <c r="B264" s="13"/>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A265" s="13"/>
-      <c r="B265" s="13"/>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A266" s="13"/>
-      <c r="B266" s="13"/>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A267" s="13"/>
-      <c r="B267" s="13"/>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A268" s="14"/>
-      <c r="B268" s="13"/>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A269" s="13"/>
-      <c r="B269" s="13"/>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A268" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2958,6 +2946,103 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD479700-2704-4432-A787-68281DCB513A}">
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="34.453125" customWidth="1"/>
+    <col min="2" max="2" width="24.1796875" customWidth="1"/>
+    <col min="3" max="3" width="43.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>302</v>
+      </c>
+      <c r="B5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C5" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>303</v>
+      </c>
+      <c r="B7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C7" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>305</v>
+      </c>
+      <c r="B9" t="s">
+        <v>215</v>
+      </c>
+      <c r="C9" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>307</v>
+      </c>
+      <c r="B11" t="s">
+        <v>215</v>
+      </c>
+      <c r="C11" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>308</v>
+      </c>
+      <c r="B14" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14" t="s">
+        <v>310</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB499724-65CB-4F13-8120-13A79F1C18BE}">
   <dimension ref="A1:B146"/>
   <sheetViews>
@@ -3899,11 +3984,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37B55EB4-751E-4260-AC38-F3846301219E}">
   <dimension ref="A1:C138"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" workbookViewId="0">
+    <sheetView topLeftCell="A32" workbookViewId="0">
       <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>

--- a/DB_schema_broker_retailer.xlsx
+++ b/DB_schema_broker_retailer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pragalya Kanakaraj\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{144E3013-38FE-4548-8BE1-D0415F374268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3D5B922-EE25-4B12-B93A-DE993B3EB400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{893E6BC4-BA8D-4CB6-8A87-F5D96D0468C5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{893E6BC4-BA8D-4CB6-8A87-F5D96D0468C5}"/>
   </bookViews>
   <sheets>
     <sheet name="static_Tables" sheetId="1" r:id="rId1"/>
@@ -1049,9 +1049,6 @@
     <t>This will calculate the amount of item wrt price of product and quantity selected.</t>
   </si>
   <si>
-    <t>Updates total_amount in order_table based onsum all items for that has same order_id</t>
-  </si>
-  <si>
     <t>trigger_update_total_order_amount</t>
   </si>
   <si>
@@ -1077,6 +1074,9 @@
   </si>
   <si>
     <t>checks if active_stautus = 1 in user_table , then enter the username , password in users.</t>
+  </si>
+  <si>
+    <t>Updates total_amount in order_table based on sum all items for that has same order_id</t>
   </si>
 </sst>
 </file>
@@ -1559,8 +1559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E971A767-F42F-4D75-9124-AF5DA9117968}">
   <dimension ref="A1:C268"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B258" sqref="B258"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2949,8 +2949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD479700-2704-4432-A787-68281DCB513A}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2984,57 +2984,57 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B5" t="s">
         <v>187</v>
       </c>
       <c r="C5" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B7" t="s">
         <v>173</v>
       </c>
       <c r="C7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B9" t="s">
         <v>215</v>
       </c>
       <c r="C9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B11" t="s">
         <v>215</v>
       </c>
       <c r="C11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B14" t="s">
         <v>113</v>
       </c>
       <c r="C14" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -3046,7 +3046,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB499724-65CB-4F13-8120-13A79F1C18BE}">
   <dimension ref="A1:B146"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="K101" sqref="K101"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>

--- a/DB_schema_broker_retailer.xlsx
+++ b/DB_schema_broker_retailer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pragalya Kanakaraj\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3D5B922-EE25-4B12-B93A-DE993B3EB400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97044E07-F1B5-4CC5-A81C-D66B41CA707B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{893E6BC4-BA8D-4CB6-8A87-F5D96D0468C5}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="329">
   <si>
     <t xml:space="preserve"> bid</t>
   </si>
@@ -1078,12 +1078,85 @@
   <si>
     <t>Updates total_amount in order_table based on sum all items for that has same order_id</t>
   </si>
+  <si>
+    <t>cart_table</t>
+  </si>
+  <si>
+    <t>cart_id</t>
+  </si>
+  <si>
+    <t>cart_status</t>
+  </si>
+  <si>
+    <t>added_at</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>INTEGER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(0 = In Cart, 1 = Moved to Wishlist, 2 = Removed)</t>
+    </r>
+  </si>
+  <si>
+    <t>whishlist_table</t>
+  </si>
+  <si>
+    <t>wishlist_id</t>
+  </si>
+  <si>
+    <t>wishlist_status</t>
+  </si>
+  <si>
+    <t>original_price</t>
+  </si>
+  <si>
+    <t>Price when added to wishlist</t>
+  </si>
+  <si>
+    <t>current_price</t>
+  </si>
+  <si>
+    <t>source_url</t>
+  </si>
+  <si>
+    <t>device_type</t>
+  </si>
+  <si>
+    <t>ip_address</t>
+  </si>
+  <si>
+    <t>character varying(45)</t>
+  </si>
+  <si>
+    <t>character varying(512)</t>
+  </si>
+  <si>
+    <t>price_drop_notification_sent</t>
+  </si>
+  <si>
+    <t>BOOLEAN DEFAULT FALSE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1135,6 +1208,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1144,7 +1238,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1214,11 +1308,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1243,6 +1363,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1559,7 +1684,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E971A767-F42F-4D75-9124-AF5DA9117968}">
   <dimension ref="A1:C268"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A170" workbookViewId="0">
       <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
@@ -2950,7 +3075,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3044,10 +3169,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB499724-65CB-4F13-8120-13A79F1C18BE}">
-  <dimension ref="A1:B146"/>
+  <dimension ref="A1:C184"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="K101" sqref="K101"/>
+    <sheetView topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="D167" sqref="D167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3978,6 +4103,261 @@
       </c>
       <c r="B146" s="5" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A150" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="B150" s="9"/>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A151" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A152" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A153" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A154" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A155" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A156" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A157" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A158" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A159" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A160" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="B160" s="17" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A161" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A162" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A163" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A164" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A168" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="B168" s="16"/>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A169" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A170" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A171" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C171" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A172" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A173" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A174" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A175" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A176" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A177" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A178" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A179" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A180" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="B180" s="17" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A181" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A182" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A183" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A184" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
